--- a/99-FamiliaDeProductos/Marco teorico/Justificaciones de Diseño.xlsx
+++ b/99-FamiliaDeProductos/Marco teorico/Justificaciones de Diseño.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facu\Downloads\Repositorios - DDS\EjerciciosDDS\99-FamiliaDeProductos\Marco teorico\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,13 +48,13 @@
     <t>Todas las clases que crean una cuenta para un cliente</t>
   </si>
   <si>
-    <t>Utilizar Factory Method</t>
-  </si>
-  <si>
     <t>Crear cada cuenta por separado</t>
   </si>
   <si>
     <t>Implementar interfaces y clases abstractas que luego permitan crear nuevos tipos de cuenta para diversos y nuevos clientes hace que el sistema sea mucho más escalable y simple de modificar en caso que las cuentas tengan que ajustar datos o agregar nuevos</t>
+  </si>
+  <si>
+    <t>Utilizar el patrón Abstract Factory</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -461,13 +461,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
